--- a/Data_frame/balancos_definitivos/PRIO3.xlsx
+++ b/Data_frame/balancos_definitivos/PRIO3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE80"/>
+  <dimension ref="A1:BH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,6 +719,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -894,6 +909,15 @@
       <c r="BE2" t="n">
         <v>28521684.992</v>
       </c>
+      <c r="BF2" t="n">
+        <v>28310931.456</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>30779117.568</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>37293928.448</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1069,6 +1093,15 @@
       <c r="BE3" t="n">
         <v>5086534.144</v>
       </c>
+      <c r="BF3" t="n">
+        <v>5294874.112</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6790404.096</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>10549708.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1244,6 +1277,15 @@
       <c r="BE4" t="n">
         <v>2225259.008</v>
       </c>
+      <c r="BF4" t="n">
+        <v>2335403.008</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>4030097.92</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>6447834.112</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1419,6 +1461,15 @@
       <c r="BE5" t="n">
         <v>0</v>
       </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1594,6 +1645,15 @@
       <c r="BE6" t="n">
         <v>1613768.96</v>
       </c>
+      <c r="BF6" t="n">
+        <v>1743490.944</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1431728</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2093881.984</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1769,6 +1829,15 @@
       <c r="BE7" t="n">
         <v>662465.024</v>
       </c>
+      <c r="BF7" t="n">
+        <v>651651.008</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>786995.008</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1067230.976</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1944,6 +2013,15 @@
       <c r="BE8" t="n">
         <v>0</v>
       </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2119,6 +2197,15 @@
       <c r="BE9" t="n">
         <v>262462</v>
       </c>
+      <c r="BF9" t="n">
+        <v>347657.984</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>365340</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>618806.976</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2294,6 +2381,15 @@
       <c r="BE10" t="n">
         <v>31060</v>
       </c>
+      <c r="BF10" t="n">
+        <v>22129</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>17694</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>21857</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2469,6 +2565,15 @@
       <c r="BE11" t="n">
         <v>291519.008</v>
       </c>
+      <c r="BF11" t="n">
+        <v>194542</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>158548.992</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>300097.984</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2644,6 +2749,15 @@
       <c r="BE12" t="n">
         <v>558121.9840000001</v>
       </c>
+      <c r="BF12" t="n">
+        <v>631700.992</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>352604</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>42123</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2819,6 +2933,15 @@
       <c r="BE13" t="n">
         <v>0</v>
       </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2994,6 +3117,15 @@
       <c r="BE14" t="n">
         <v>0</v>
       </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3169,6 +3301,15 @@
       <c r="BE15" t="n">
         <v>0</v>
       </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3344,6 +3485,15 @@
       <c r="BE16" t="n">
         <v>0</v>
       </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3519,6 +3669,15 @@
       <c r="BE17" t="n">
         <v>0</v>
       </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3694,6 +3853,15 @@
       <c r="BE18" t="n">
         <v>0</v>
       </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3869,6 +4037,15 @@
       <c r="BE19" t="n">
         <v>425636.992</v>
       </c>
+      <c r="BF19" t="n">
+        <v>516582.016</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>226895.008</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4044,6 +4221,15 @@
       <c r="BE20" t="n">
         <v>0</v>
       </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4219,6 +4405,15 @@
       <c r="BE21" t="n">
         <v>0</v>
       </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4394,6 +4589,15 @@
       <c r="BE22" t="n">
         <v>0</v>
       </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4569,6 +4773,15 @@
       <c r="BE23" t="n">
         <v>10653009.92</v>
       </c>
+      <c r="BF23" t="n">
+        <v>11469478.912</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>12714584.064</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>14926721.024</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4744,6 +4957,15 @@
       <c r="BE24" t="n">
         <v>12224017.408</v>
       </c>
+      <c r="BF24" t="n">
+        <v>10914878.464</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>10921526.272</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>11775377.408</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4919,6 +5141,15 @@
       <c r="BE25" t="n">
         <v>0</v>
       </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5094,6 +5325,15 @@
       <c r="BE26" t="n">
         <v>28521684.992</v>
       </c>
+      <c r="BF26" t="n">
+        <v>28310931.456</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>30779117.568</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>37293928.448</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5269,6 +5509,15 @@
       <c r="BE27" t="n">
         <v>3857690.88</v>
       </c>
+      <c r="BF27" t="n">
+        <v>3463811.072</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>3634616.064</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5183664.128</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5444,6 +5693,15 @@
       <c r="BE28" t="n">
         <v>198964.992</v>
       </c>
+      <c r="BF28" t="n">
+        <v>266892.992</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>179616.992</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>196040</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5619,6 +5877,15 @@
       <c r="BE29" t="n">
         <v>638038.0159999999</v>
       </c>
+      <c r="BF29" t="n">
+        <v>834777.9840000001</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>636779.008</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>1123725.952</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5794,6 +6061,15 @@
       <c r="BE30" t="n">
         <v>504260.992</v>
       </c>
+      <c r="BF30" t="n">
+        <v>593006.976</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>410552.992</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>698729.9840000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5969,6 +6245,15 @@
       <c r="BE31" t="n">
         <v>2193786.88</v>
       </c>
+      <c r="BF31" t="n">
+        <v>1476563.968</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1571096.96</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>1595463.04</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6144,6 +6429,15 @@
       <c r="BE32" t="n">
         <v>0</v>
       </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6319,6 +6613,15 @@
       <c r="BE33" t="n">
         <v>0</v>
       </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6494,6 +6797,15 @@
       <c r="BE34" t="n">
         <v>342003.008</v>
       </c>
+      <c r="BF34" t="n">
+        <v>292568.992</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>836569.9840000001</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>1569704.96</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6669,6 +6981,15 @@
       <c r="BE35" t="n">
         <v>0</v>
       </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6844,6 +7165,15 @@
       <c r="BE36" t="n">
         <v>-19363</v>
       </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7019,6 +7349,15 @@
       <c r="BE37" t="n">
         <v>11762887.68</v>
       </c>
+      <c r="BF37" t="n">
+        <v>10968841.216</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>11747972.096</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>14343484.416</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7194,6 +7533,15 @@
       <c r="BE38" t="n">
         <v>8327926.784</v>
       </c>
+      <c r="BF38" t="n">
+        <v>8077837.824</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>9523656.704</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>11662388.224</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7369,6 +7717,15 @@
       <c r="BE39" t="n">
         <v>0</v>
       </c>
+      <c r="BF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7544,6 +7901,15 @@
       <c r="BE40" t="n">
         <v>781689.9840000001</v>
       </c>
+      <c r="BF40" t="n">
+        <v>823473.024</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>38421</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>42567</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7719,6 +8085,15 @@
       <c r="BE41" t="n">
         <v>0</v>
       </c>
+      <c r="BF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>572934.976</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7894,6 +8269,15 @@
       <c r="BE42" t="n">
         <v>0</v>
       </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8069,6 +8453,15 @@
       <c r="BE43" t="n">
         <v>2653271.04</v>
       </c>
+      <c r="BF43" t="n">
+        <v>2067529.984</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>2185893.888</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2065593.984</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8244,6 +8637,15 @@
       <c r="BE44" t="n">
         <v>0</v>
       </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8419,6 +8821,15 @@
       <c r="BE45" t="n">
         <v>0</v>
       </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8594,6 +9005,15 @@
       <c r="BE46" t="n">
         <v>0</v>
       </c>
+      <c r="BF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8769,6 +9189,15 @@
       <c r="BE47" t="n">
         <v>12901103.616</v>
       </c>
+      <c r="BF47" t="n">
+        <v>13878280.192</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>15396530.176</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>17766782.976</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8944,6 +9373,15 @@
       <c r="BE48" t="n">
         <v>5352792.064</v>
       </c>
+      <c r="BF48" t="n">
+        <v>5352792.064</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>7611386.88</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>7611386.88</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9119,6 +9557,15 @@
       <c r="BE49" t="n">
         <v>295848</v>
       </c>
+      <c r="BF49" t="n">
+        <v>-171876.992</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>-242064</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>-326651.008</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9294,6 +9741,15 @@
       <c r="BE50" t="n">
         <v>0</v>
       </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9469,6 +9925,15 @@
       <c r="BE51" t="n">
         <v>3256051.968</v>
       </c>
+      <c r="BF51" t="n">
+        <v>8801740.800000001</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>6601740.8</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>6601740.8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9644,6 +10109,15 @@
       <c r="BE52" t="n">
         <v>3631857.92</v>
       </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1045553.024</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>2465562.112</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9819,6 +10293,15 @@
       <c r="BE53" t="n">
         <v>92221</v>
       </c>
+      <c r="BF53" t="n">
+        <v>80284</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>80526</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>-634193.9840000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9994,6 +10477,15 @@
       <c r="BE54" t="n">
         <v>272332.992</v>
       </c>
+      <c r="BF54" t="n">
+        <v>-184660</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>299387.008</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>2048936.96</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10169,6 +10661,15 @@
       <c r="BE55" t="n">
         <v>0</v>
       </c>
+      <c r="BF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10342,6 +10843,15 @@
         <v>0</v>
       </c>
       <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10413,6 +10923,9 @@
       <c r="BC57" t="inlineStr"/>
       <c r="BD57" t="inlineStr"/>
       <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10482,6 +10995,9 @@
       <c r="BC58" t="inlineStr"/>
       <c r="BD58" t="inlineStr"/>
       <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10655,6 +11171,15 @@
       <c r="BE59" t="n">
         <v>4045489.92</v>
       </c>
+      <c r="BF59" t="n">
+        <v>2733390.592</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>3200186.112</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4595040.768</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10828,6 +11353,15 @@
       <c r="BE60" t="n">
         <v>-1627597.952</v>
       </c>
+      <c r="BF60" t="n">
+        <v>-793581.12</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>-1387639.04</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>-2190580.992</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11001,6 +11535,15 @@
       <c r="BE61" t="n">
         <v>2417892.096</v>
       </c>
+      <c r="BF61" t="n">
+        <v>1939808.896</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1812546.944</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>2404460.032</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11174,6 +11717,15 @@
       <c r="BE62" t="n">
         <v>0</v>
       </c>
+      <c r="BF62" t="n">
+        <v>261808</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11347,6 +11899,15 @@
       <c r="BE63" t="n">
         <v>-132419</v>
       </c>
+      <c r="BF63" t="n">
+        <v>-246839.024</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>-118814</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>-193616.992</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11512,6 +12073,15 @@
       <c r="BE64" t="n">
         <v>0</v>
       </c>
+      <c r="BF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11685,6 +12255,15 @@
       <c r="BE65" t="n">
         <v>0</v>
       </c>
+      <c r="BF65" t="n">
+        <v>64351</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>30023</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>309233.984</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11858,6 +12437,15 @@
       <c r="BE66" t="n">
         <v>-53149</v>
       </c>
+      <c r="BF66" t="n">
+        <v>203376.992</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12031,6 +12619,15 @@
       <c r="BE67" t="n">
         <v>0</v>
       </c>
+      <c r="BF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12204,6 +12801,15 @@
       <c r="BE68" t="n">
         <v>-112097</v>
       </c>
+      <c r="BF68" t="n">
+        <v>-333748.992</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>-198679.008</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>-55870</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12377,6 +12983,15 @@
       <c r="BE69" t="n">
         <v>-286862.016</v>
       </c>
+      <c r="BF69" t="n">
+        <v>749409.9840000001</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>402193.984</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>2293392.896</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12549,6 +13164,15 @@
       </c>
       <c r="BE70" t="n">
         <v>174764.992</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>-1083159.168</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>-600873.024</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>-2349263.104</v>
       </c>
     </row>
     <row r="71">
@@ -12619,6 +13243,9 @@
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
       <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12688,6 +13315,9 @@
       <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
       <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12757,6 +13387,9 @@
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
       <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12930,6 +13563,15 @@
       <c r="BE74" t="n">
         <v>2120226.944</v>
       </c>
+      <c r="BF74" t="n">
+        <v>1888757.248</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1525076.992</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>2464207.104</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13103,6 +13745,15 @@
       <c r="BE75" t="n">
         <v>-187700</v>
       </c>
+      <c r="BF75" t="n">
+        <v>-262941.024</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>-180923.008</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>-244863.008</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13275,6 +13926,15 @@
       </c>
       <c r="BE76" t="n">
         <v>-303703.008</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>-77768.992</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>-298600.992</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>-799334.976</v>
       </c>
     </row>
     <row r="77">
@@ -13345,6 +14005,9 @@
       <c r="BC77" t="inlineStr"/>
       <c r="BD77" t="inlineStr"/>
       <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
+      <c r="BH77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13414,6 +14077,9 @@
       <c r="BC78" t="inlineStr"/>
       <c r="BD78" t="inlineStr"/>
       <c r="BE78" t="inlineStr"/>
+      <c r="BF78" t="inlineStr"/>
+      <c r="BG78" t="inlineStr"/>
+      <c r="BH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13587,6 +14253,15 @@
       <c r="BE79" t="n">
         <v>0</v>
       </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13760,6 +14435,15 @@
       <c r="BE80" t="n">
         <v>1628824.064</v>
       </c>
+      <c r="BF80" t="n">
+        <v>1548046.848</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1045553.024</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>1420008.96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
